--- a/Texts/Город Сокровищ/Все персонажи/Пелиппер.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Пелиппер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ âòåí òåñäøåí ðïòâÿþàý òåáÿ\nòâïåê ñàáïóå!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0211.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0311.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0408.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us2108.ssb</t>
   </si>
 </sst>
 </file>
@@ -94,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,11 +138,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -145,6 +166,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -427,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,20 +505,26 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6">
         <v>41</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B4" s="4">
         <v>18</v>
       </c>
@@ -503,6 +536,16 @@
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
